--- a/TestData/tealPDTestData.xlsx
+++ b/TestData/tealPDTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumProjects\HybridFrameWork\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumProjects\AzureDeveopsSeleniumJava\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7C12ED-7BFF-4599-9E4B-8D90CB5DBA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8306CCCE-2B34-4037-94F2-22CEA70121FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -610,13 +610,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
   </cols>
@@ -656,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3021415-B1E7-40C8-B45C-D2D329108871}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/TestData/tealPDTestData.xlsx
+++ b/TestData/tealPDTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumProjects\AzureDeveopsSeleniumJava\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8306CCCE-2B34-4037-94F2-22CEA70121FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59840091-5DC8-44B2-B2D1-E567866581E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Automation</t>
-  </si>
-  <si>
     <t>PhoneMain</t>
   </si>
   <si>
@@ -87,7 +84,10 @@
     <t>http://192.168.1.16:8025/</t>
   </si>
   <si>
-    <t>For Test Purpose</t>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Test Automation12</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -634,7 +634,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -676,10 +676,10 @@
         <v>6</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>1234569875</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB225BBE-11EE-4098-96C5-9BAAFF35CF2D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,18 +721,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +758,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
